--- a/2023-1/courses.xlsx
+++ b/2023-1/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\bkd\2023-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89246ED-210E-405B-9F02-F692748C5F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD25B41B-B875-4164-A956-27CA89C26312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14595" yWindow="3720" windowWidth="13320" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Mon</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>FI1101</t>
-  </si>
-  <si>
     <t>FI4002-01</t>
   </si>
   <si>
@@ -55,6 +52,18 @@
   </si>
   <si>
     <t>SK6091-01</t>
+  </si>
+  <si>
+    <t>FI1101-04</t>
+  </si>
+  <si>
+    <t>FI1101-09</t>
+  </si>
+  <si>
+    <t>NT8098-01</t>
+  </si>
+  <si>
+    <t>NT6094-01</t>
   </si>
 </sst>
 </file>
@@ -62,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0000"/>
+    <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +81,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,54 +136,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -145,24 +148,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,7 +463,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,148 +473,152 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>700</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>800</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>900</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <v>1100</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="9">
         <v>1200</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="9">
         <v>1300</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="G9" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="9">
         <v>1400</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="9">
         <v>1500</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="9">
         <v>1600</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
   </sheetData>

--- a/2023-1/courses.xlsx
+++ b/2023-1/courses.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\bkd\2023-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD25B41B-B875-4164-A956-27CA89C26312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9637CC67-E6B5-4CD0-B197-FE102F6E408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="3720" windowWidth="13320" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="1560" windowWidth="13200" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Mon</t>
   </si>
@@ -64,6 +65,30 @@
   </si>
   <si>
     <t>NT6094-01</t>
+  </si>
+  <si>
+    <t>K1.9680b</t>
+  </si>
+  <si>
+    <t>K3.101</t>
+  </si>
+  <si>
+    <t>D1.9633</t>
+  </si>
+  <si>
+    <t>K2.9655</t>
+  </si>
+  <si>
+    <t>BSC-A L3</t>
+  </si>
+  <si>
+    <t>R Comp</t>
+  </si>
+  <si>
+    <t>L3 R2 online</t>
+  </si>
+  <si>
+    <t>CAS 9521</t>
   </si>
 </sst>
 </file>
@@ -73,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +109,41 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC5C5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA2B9E2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,27 +208,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -177,7 +234,44 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -186,6 +280,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA2B9E2"/>
+      <color rgb="FFFFC5C5"/>
+      <color rgb="FFFFD5D5"/>
+      <color rgb="FFD0DBF0"/>
+      <color rgb="FF96B0DE"/>
+      <color rgb="FFFFA3A3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,11 +563,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2350D51-861F-4622-956D-94A2824538B9}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="12">
+        <v>700</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>800</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>900</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15">
+        <v>9132</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="15">
+        <v>9132</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>1100</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>1300</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>1400</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>1600</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,152 +769,152 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>700</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>800</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>900</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1000</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1100</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>1200</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>1300</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1400</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>1500</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>1600</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
   </sheetData>
